--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1540386.438957873</v>
+        <v>-1542969.237716503</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12545852.19674081</v>
+        <v>12557642.87455484</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14713345.84806866</v>
+        <v>14717968.19709434</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>72.8319652169863</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406815</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>182.9163641647837</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.089742000015</v>
+        <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984359</v>
+        <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173974</v>
+        <v>9.512185486736371</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.8202859453569</v>
+        <v>128.5862749777978</v>
       </c>
       <c r="T3" t="n">
-        <v>191.0804331905373</v>
+        <v>190.8126513536573</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7931073991856</v>
+        <v>225.7887366401506</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>92.75950069007715</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.8307234716369</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638283</v>
+        <v>190.11729872947</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>65.32939705935121</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>97.98497099623563</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>264.835944560759</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.81518456748639</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>191.8128845006351</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>200.433170752809</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>81.27887379618319</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>224.2162314315827</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507422</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>56.1018080151654</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>80.2528694872518</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>9.570729811035648</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>10.63412424768296</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>157.7030888155087</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8253826161921404</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>99.97427419833772</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265269</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541832</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652637</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,7 +3718,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
         <v>262.2383508445512</v>
@@ -3727,7 +3727,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1280.958456508325</v>
+        <v>866.2215162936441</v>
       </c>
       <c r="C2" t="n">
-        <v>911.9959395679132</v>
+        <v>497.2589993532324</v>
       </c>
       <c r="D2" t="n">
-        <v>911.9959395679132</v>
+        <v>138.993300746482</v>
       </c>
       <c r="E2" t="n">
-        <v>526.2076869696689</v>
+        <v>138.993300746482</v>
       </c>
       <c r="F2" t="n">
-        <v>526.207686969669</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="G2" t="n">
-        <v>110.9648131842588</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842588</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247275</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730312</v>
+        <v>250.5613272725627</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315692</v>
+        <v>578.7702206183947</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529729</v>
+        <v>1022.844136887445</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808268</v>
+        <v>1548.631370064182</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811713</v>
+        <v>2087.54019874618</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076069</v>
+        <v>2583.081262767916</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259758</v>
+        <v>2971.513095303805</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510237</v>
+        <v>3215.036478301002</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623637</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="S2" t="n">
-        <v>3119.882870623637</v>
+        <v>3159.966809007347</v>
       </c>
       <c r="T2" t="n">
-        <v>2913.159093565754</v>
+        <v>2953.792066077313</v>
       </c>
       <c r="U2" t="n">
-        <v>2728.395089358901</v>
+        <v>2700.257989208342</v>
       </c>
       <c r="V2" t="n">
-        <v>2397.33220201533</v>
+        <v>2369.195101864771</v>
       </c>
       <c r="W2" t="n">
-        <v>2044.563546745216</v>
+        <v>2016.426446594657</v>
       </c>
       <c r="X2" t="n">
-        <v>1671.097788484137</v>
+        <v>1642.960688333578</v>
       </c>
       <c r="Y2" t="n">
-        <v>1280.958456508325</v>
+        <v>1252.821356357766</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1494.450283274067</v>
+        <v>931.3149953501908</v>
       </c>
       <c r="C3" t="n">
-        <v>1319.99725399294</v>
+        <v>756.8619660690638</v>
       </c>
       <c r="D3" t="n">
-        <v>1171.062844331689</v>
+        <v>607.9275564078125</v>
       </c>
       <c r="E3" t="n">
-        <v>1011.825389326233</v>
+        <v>448.690101402357</v>
       </c>
       <c r="F3" t="n">
-        <v>865.2908313531183</v>
+        <v>302.1555434292419</v>
       </c>
       <c r="G3" t="n">
-        <v>728.8365465046184</v>
+        <v>165.7683651841082</v>
       </c>
       <c r="H3" t="n">
-        <v>637.454000090635</v>
+        <v>75.03392728158293</v>
       </c>
       <c r="I3" t="n">
-        <v>625.5352633414029</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J3" t="n">
-        <v>710.769017689183</v>
+        <v>156.8733478056106</v>
       </c>
       <c r="K3" t="n">
-        <v>934.6019044271161</v>
+        <v>419.000857536035</v>
       </c>
       <c r="L3" t="n">
-        <v>1281.89538449531</v>
+        <v>780.5750497221807</v>
       </c>
       <c r="M3" t="n">
-        <v>1706.527363131966</v>
+        <v>1221.871945822811</v>
       </c>
       <c r="N3" t="n">
-        <v>2156.806731626993</v>
+        <v>1689.257302559075</v>
       </c>
       <c r="O3" t="n">
-        <v>2546.504589386189</v>
+        <v>2094.603797632936</v>
       </c>
       <c r="P3" t="n">
-        <v>2839.938410364689</v>
+        <v>2400.597029664691</v>
       </c>
       <c r="Q3" t="n">
-        <v>3119.882870623637</v>
+        <v>2555.226205362918</v>
       </c>
       <c r="R3" t="n">
-        <v>3119.882870623637</v>
+        <v>2555.226205362918</v>
       </c>
       <c r="S3" t="n">
-        <v>2988.75126865863</v>
+        <v>2425.341079122718</v>
       </c>
       <c r="T3" t="n">
-        <v>2795.74073008233</v>
+        <v>2232.601027250337</v>
       </c>
       <c r="U3" t="n">
-        <v>2567.666884224566</v>
+        <v>2004.53159630069</v>
       </c>
       <c r="V3" t="n">
-        <v>2332.514775992824</v>
+        <v>1769.379488068947</v>
       </c>
       <c r="W3" t="n">
-        <v>2078.277419264622</v>
+        <v>1515.142131340745</v>
       </c>
       <c r="X3" t="n">
-        <v>1870.425919059089</v>
+        <v>1307.290631135213</v>
       </c>
       <c r="Y3" t="n">
-        <v>1662.665620294135</v>
+        <v>1099.530332370259</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.2535208330187</v>
+        <v>159.1221244566733</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3173379051119</v>
+        <v>159.1221244566733</v>
       </c>
       <c r="D4" t="n">
-        <v>357.2006984927762</v>
+        <v>159.1221244566733</v>
       </c>
       <c r="E4" t="n">
-        <v>209.2876049103831</v>
+        <v>159.1221244566733</v>
       </c>
       <c r="F4" t="n">
-        <v>62.39765741247275</v>
+        <v>159.1221244566732</v>
       </c>
       <c r="G4" t="n">
-        <v>62.39765741247275</v>
+        <v>159.1221244566732</v>
       </c>
       <c r="H4" t="n">
-        <v>62.39765741247275</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247275</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038607</v>
+        <v>109.1495242182616</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589865</v>
+        <v>310.8381027401522</v>
       </c>
       <c r="L4" t="n">
-        <v>602.92588227127</v>
+        <v>624.4564789039123</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583196</v>
+        <v>965.5122071220437</v>
       </c>
       <c r="N4" t="n">
-        <v>1265.280934468307</v>
+        <v>1303.893008842036</v>
       </c>
       <c r="O4" t="n">
-        <v>1554.020240090064</v>
+        <v>1600.426152235784</v>
       </c>
       <c r="P4" t="n">
-        <v>1777.565915077021</v>
+        <v>1830.640801863761</v>
       </c>
       <c r="Q4" t="n">
-        <v>1848.902273001215</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="R4" t="n">
-        <v>1848.902273001215</v>
+        <v>1815.856307632729</v>
       </c>
       <c r="S4" t="n">
-        <v>1655.884140512499</v>
+        <v>1623.818632148415</v>
       </c>
       <c r="T4" t="n">
-        <v>1433.790891431371</v>
+        <v>1401.965766370401</v>
       </c>
       <c r="U4" t="n">
-        <v>1144.683854765729</v>
+        <v>1112.861798427778</v>
       </c>
       <c r="V4" t="n">
-        <v>1144.683854765729</v>
+        <v>858.1773102218909</v>
       </c>
       <c r="W4" t="n">
-        <v>1144.683854765729</v>
+        <v>568.7601401849304</v>
       </c>
       <c r="X4" t="n">
-        <v>1078.694564806789</v>
+        <v>340.770589286913</v>
       </c>
       <c r="Y4" t="n">
-        <v>857.9019856632584</v>
+        <v>340.770589286913</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4586,7 +4586,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410101</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149022</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>2320.807863037144</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.5803025616257</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C7" t="n">
-        <v>675.6441196337188</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D7" t="n">
-        <v>525.527480221383</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>377.6143866389899</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>230.7244391410796</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>230.7244391410796</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>84.50725235893734</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640134</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603173</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.372881705156</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.5803025616257</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3012.857404901105</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1164.612676616877</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>936.6231257188592</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>936.6231257188592</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381635</v>
+        <v>363.7369613277356</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5276,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>696.7084350851667</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>546.5917956728309</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>398.6787020904378</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2187.395141638036</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1898.319914982234</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1643.635426776347</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1090.767110287001</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C25" t="n">
-        <v>921.8309273590942</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D25" t="n">
-        <v>771.7142879467583</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>623.8011943643652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>476.9112468664549</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y25" t="n">
-        <v>1272.415575117241</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.89930448767</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597631</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474274</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474274</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474274</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G28" t="n">
-        <v>94.65038286230738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614397</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179097</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>411.221455958012</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345487</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384031</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038337</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345467</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,7 +6871,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,25 +7567,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>27.95355500661913</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>135.0615335795973</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113714</v>
+        <v>1.622913276780253</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>334.0440805247251</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821742</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.29451177962358</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812898</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>68.09230534564642</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339734</v>
+        <v>52.17319361040509</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978307</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>160.3802583296859</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>196.0358353086657</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>65.16817853567944</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>207.8347205162526</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.7713260796053</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823271</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>7.821049476760152</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.4693302300317</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856548</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>-5.897504706808832e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1056722.556073909</v>
+        <v>1076720.940648151</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1302899.890976444</v>
+        <v>1281014.997951957</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455267</v>
+        <v>118476.4986260252</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
@@ -26332,28 +26332,28 @@
         <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262496</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262497</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.29747634</v>
+        <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023833</v>
+        <v>14479.05232074506</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503628</v>
+        <v>213977.8894125531</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594291</v>
+        <v>3495.241841022609</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12912.91945249303</v>
+        <v>11046.00124731556</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813258</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813252</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26433,31 +26433,31 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.94754987469</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="M4" t="n">
         <v>18547.94754987468</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="O4" t="n">
+        <v>18547.94754987468</v>
+      </c>
+      <c r="P4" t="n">
         <v>18547.94754987467</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18547.94754987468</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103892.0286120431</v>
+        <v>106866.6399031116</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26494,7 +26494,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1271827.40169535</v>
+        <v>-1313310.758621327</v>
       </c>
       <c r="C6" t="n">
-        <v>-108828.5267735145</v>
+        <v>-68474.80621402129</v>
       </c>
       <c r="D6" t="n">
-        <v>-53995.75389327618</v>
+        <v>-53995.75389327621</v>
       </c>
       <c r="E6" t="n">
-        <v>-295841.4249722924</v>
+        <v>-295876.1628977282</v>
       </c>
       <c r="F6" t="n">
-        <v>29571.03683506275</v>
+        <v>29536.29890962706</v>
       </c>
       <c r="G6" t="n">
-        <v>29571.03683506278</v>
+        <v>29536.29890962706</v>
       </c>
       <c r="H6" t="n">
-        <v>29571.03683506275</v>
+        <v>29536.29890962712</v>
       </c>
       <c r="I6" t="n">
-        <v>29571.03683506283</v>
+        <v>29536.29890962715</v>
       </c>
       <c r="J6" t="n">
-        <v>-174503.6216153</v>
+        <v>-184441.5905029261</v>
       </c>
       <c r="K6" t="n">
-        <v>-10694.0977834834</v>
+        <v>26041.05706860448</v>
       </c>
       <c r="L6" t="n">
-        <v>21970.24632245953</v>
+        <v>2542.528328827815</v>
       </c>
       <c r="M6" t="n">
-        <v>-63084.7816130522</v>
+        <v>-63084.78161305229</v>
       </c>
       <c r="N6" t="n">
-        <v>21970.24632245953</v>
+        <v>21970.24632245957</v>
       </c>
       <c r="O6" t="n">
-        <v>21970.2463224596</v>
+        <v>21970.24632245958</v>
       </c>
       <c r="P6" t="n">
-        <v>2542.528328827801</v>
+        <v>21970.24632245957</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310266</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310266</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303277</v>
+        <v>11.08225210209503</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638322</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559093</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559093</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>284.7488706672449</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>121.4019940952946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>78.53723584235169</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>60.32475882319287</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>50.56200120609302</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>304.9590648598704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>70.66335656800744</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>62.30676690500829</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-3.079648536186141e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578954</v>
+        <v>4.336460094436993</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359297</v>
+        <v>44.41077194215286</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563378</v>
+        <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201795</v>
+        <v>368.0516299402221</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727968</v>
+        <v>551.6139857377401</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774663</v>
+        <v>684.3259263528663</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477735</v>
+        <v>761.4444485573102</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212823</v>
+        <v>773.7654158006294</v>
       </c>
       <c r="O2" t="n">
-        <v>709.723892496794</v>
+        <v>730.6447407365715</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034385</v>
+        <v>623.5883821551581</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082671</v>
+        <v>468.2889050231332</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165567</v>
+        <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495551</v>
+        <v>98.81708440198308</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682688</v>
+        <v>18.98285406339795</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063162</v>
+        <v>0.3469168075549593</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195666</v>
+        <v>2.320210700528248</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665288</v>
+        <v>22.4083507129965</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967534</v>
+        <v>79.88444736467871</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280607</v>
+        <v>219.2090293863114</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621703</v>
+        <v>374.6631463217039</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982519</v>
+        <v>503.7808365335566</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640946</v>
+        <v>587.8884744277054</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278061</v>
+        <v>603.448133029055</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012073</v>
+        <v>552.0371485594554</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825127</v>
+        <v>443.0584801736792</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861695</v>
+        <v>296.1728606498865</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938502</v>
+        <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848086</v>
+        <v>43.09689612604001</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284279</v>
+        <v>9.352077341164293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891886</v>
+        <v>0.1526454408242269</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608675</v>
+        <v>1.945186710393972</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346623</v>
+        <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826818</v>
+        <v>58.49706943621147</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039333</v>
+        <v>137.5247004248538</v>
       </c>
       <c r="K4" t="n">
-        <v>219.524312487626</v>
+        <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086571</v>
+        <v>289.1962132889366</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957853</v>
+        <v>304.9168586120296</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328805</v>
+        <v>297.666617236925</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503608</v>
+        <v>274.9432997564135</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431437</v>
+        <v>235.2614908643763</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478501</v>
+        <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738642</v>
+        <v>87.46266790553258</v>
       </c>
       <c r="S4" t="n">
-        <v>32.9286468731439</v>
+        <v>33.89929930750221</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964337</v>
+        <v>8.311252308046969</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1030630575059279</v>
+        <v>0.1061010932942168</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31853,16 +31853,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,28 +33974,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,7 +34451,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934933</v>
+        <v>187.0057254135358</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278162</v>
+        <v>331.5241346927596</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074791</v>
+        <v>448.5595113828791</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205008</v>
+        <v>531.0982153300375</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246914</v>
+        <v>544.3523522040384</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751072</v>
+        <v>500.5465293148848</v>
       </c>
       <c r="P2" t="n">
-        <v>374.499926448169</v>
+        <v>392.3553863998886</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338176</v>
+        <v>245.9832151486837</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242458</v>
+        <v>56.81462359304589</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139402</v>
+        <v>92.37140271964466</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878113</v>
+        <v>264.7752623539641</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183777</v>
+        <v>365.2264567536824</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420763</v>
+        <v>445.7544405056871</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444728</v>
+        <v>472.1064209457218</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567629</v>
+        <v>409.440904115011</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681824</v>
+        <v>309.0840727593489</v>
       </c>
       <c r="Q3" t="n">
-        <v>282.7721820797453</v>
+        <v>156.191086563865</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726057</v>
+        <v>44.16552030818104</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617432</v>
+        <v>203.7258368907986</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689732</v>
+        <v>316.7862385492527</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576259</v>
+        <v>344.5007355738702</v>
       </c>
       <c r="N4" t="n">
-        <v>333.275580212109</v>
+        <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644005</v>
+        <v>299.5284276704532</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080372</v>
+        <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615571</v>
+        <v>76.72081847047723</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
